--- a/江滩公园.xlsx
+++ b/江滩公园.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20139\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20139\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1427BEA-06F7-45DB-B0F3-4F6C7A5879C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDBAB03-9493-4F29-8A0B-7930B2FFFD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>图片的链接</t>
   </si>
@@ -37,11 +37,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nothing</t>
+    <t>https://pcsdata.baidu.com/thumbnail/f54a3efeftc273e33a840c541d4e2020?fid=3194696586-16051585-179035151230060&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-LSjPUrvo3BBCOzP65Or5t%2Fzcahw%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=492013381223314169&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://pcsdata.baidu.com/thumbnail/f54a3efeftc273e33a840c541d4e2020?fid=3194696586-16051585-179035151230060&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-LSjPUrvo3BBCOzP65Or5t%2Fzcahw%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=492013381223314169&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
+    <t>(图1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(图2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -415,15 +419,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/江滩公园.xlsx
+++ b/江滩公园.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20139\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDBAB03-9493-4F29-8A0B-7930B2FFFD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5C8D08-FDB7-4F85-ACA6-AD8D53B3925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,27 +33,25 @@
     <t>图片的描述</t>
   </si>
   <si>
-    <t>https://pcsdata.baidu.com/thumbnail/fd449b4f9k892494445a0c5b19907717?fid=3194696586-16051585-996448106221411&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-gcOO9URkn3FJiCGf3Z%2F8Y5l7kYs%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=491984642015891740&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pcsdata.baidu.com/thumbnail/f54a3efeftc273e33a840c541d4e2020?fid=3194696586-16051585-179035151230060&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-LSjPUrvo3BBCOzP65Or5t%2Fzcahw%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=492013381223314169&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(图1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(图2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pcsdata.baidu.com/thumbnail/fd449b4f9k892494445a0c5b19907717?fid=3194696586-16051585-996448106221411&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-gcOO9URkn3FJiCGf3Z%2F8Y5l7kYs%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=491984642015891740&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
+  </si>
+  <si>
+    <t>https://pcsdata.baidu.com/thumbnail/f54a3efeftc273e33a840c541d4e2020?fid=3194696586-16051585-179035151230060&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-LSjPUrvo3BBCOzP65Or5t%2Fzcahw%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=492013381223314169&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,14 +72,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,23 +90,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,29 +399,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="112">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://pcsdata.baidu.com/thumbnail/fd449b4f9k892494445a0c5b19907717?fid=3194696586-16051585-996448106221411&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-gcOO9URkn3FJiCGf3Z%2F8Y5l7kYs%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=491984642015891740&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video" xr:uid="{95FC00F4-7C30-42E2-BF06-DEF9CFEF1C75}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://pcsdata.baidu.com/thumbnail/f54a3efeftc273e33a840c541d4e2020?fid=3194696586-16051585-179035151230060&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-LSjPUrvo3BBCOzP65Or5t%2Fzcahw%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=492013381223314169&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video" xr:uid="{93F91C18-4E85-45C0-926D-A2C4EC33A83B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/江滩公园.xlsx
+++ b/江滩公园.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20139\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5C8D08-FDB7-4F85-ACA6-AD8D53B3925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF8F8F5-56A4-4389-B620-E95144BAC643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,16 +42,18 @@
   </si>
   <si>
     <t>https://pcsdata.baidu.com/thumbnail/fd449b4f9k892494445a0c5b19907717?fid=3194696586-16051585-996448106221411&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-gcOO9URkn3FJiCGf3Z%2F8Y5l7kYs%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=491984642015891740&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://pcsdata.baidu.com/thumbnail/f54a3efeftc273e33a840c541d4e2020?fid=3194696586-16051585-179035151230060&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-LSjPUrvo3BBCOzP65Or5t%2Fzcahw%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=492013381223314169&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +74,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,18 +100,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,12 +394,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="1" max="1" width="98.83203125" customWidth="1"/>
     <col min="2" max="2" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -417,7 +429,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://pcsdata.baidu.com/thumbnail/fd449b4f9k892494445a0c5b19907717?fid=3194696586-16051585-996448106221411&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-gcOO9URkn3FJiCGf3Z%2F8Y5l7kYs%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=491984642015891740&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video" xr:uid="{1F41AD70-5AAC-4444-AC80-072B96DC424D}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://pcsdata.baidu.com/thumbnail/f54a3efeftc273e33a840c541d4e2020?fid=3194696586-16051585-179035151230060&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-LSjPUrvo3BBCOzP65Or5t%2Fzcahw%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=492013381223314169&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video" xr:uid="{D5FE158B-3A68-433F-9A9F-CF57D3013F26}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/江滩公园.xlsx
+++ b/江滩公园.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20139\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF8F8F5-56A4-4389-B620-E95144BAC643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74800F2-1940-46E1-ACEF-36C8DB587343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>图片的链接</t>
   </si>
@@ -41,11 +41,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://pcsdata.baidu.com/thumbnail/fd449b4f9k892494445a0c5b19907717?fid=3194696586-16051585-996448106221411&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-gcOO9URkn3FJiCGf3Z%2F8Y5l7kYs%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=491984642015891740&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pcsdata.baidu.com/thumbnail/f54a3efeftc273e33a840c541d4e2020?fid=3194696586-16051585-179035151230060&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-LSjPUrvo3BBCOzP65Or5t%2Fzcahw%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=492013381223314169&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video</t>
+    <t>http://asu328.bvimg.com/20051/7a29dc31735f9b69.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asu328.bvimg.com/20051/ad09a224eab147e5.jpg</t>
+  </si>
+  <si>
+    <t>http://asu328.bvimg.com/20051/f49716931cc2a910.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asu328.bvimg.com/20051/f68bd0bbdf31af11.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(图3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(图4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -427,13 +442,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://pcsdata.baidu.com/thumbnail/fd449b4f9k892494445a0c5b19907717?fid=3194696586-16051585-996448106221411&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-gcOO9URkn3FJiCGf3Z%2F8Y5l7kYs%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=491984642015891740&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video" xr:uid="{1F41AD70-5AAC-4444-AC80-072B96DC424D}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://pcsdata.baidu.com/thumbnail/f54a3efeftc273e33a840c541d4e2020?fid=3194696586-16051585-179035151230060&amp;rt=pr&amp;sign=FDTAER-yUdy3dSFZ0SVxtzShv1zcMqd-LSjPUrvo3BBCOzP65Or5t%2Fzcahw%3D&amp;expires=2h&amp;chkv=0&amp;chkbd=0&amp;chkpc=&amp;dp-logid=492013381223314169&amp;dp-callid=0&amp;time=1682924400&amp;bus_no=26&amp;size=c1600_u1600&amp;quality=100&amp;vuk=-&amp;ft=video" xr:uid="{D5FE158B-3A68-433F-9A9F-CF57D3013F26}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8B1C861E-C3F6-4A87-AD2D-1B5CB124B8E2}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{66A4FC5D-A099-4BAF-8B57-FB6D719D65BA}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{91E6B2B3-48B6-4545-807D-9D91E4993320}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>